--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020921-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020921-2.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3295,12 +3295,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4299,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5709,12 +5709,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6013,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6051,12 +6051,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6127,12 +6127,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6165,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6659,12 +6659,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6735,12 +6735,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6773,12 +6773,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6849,12 +6849,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7271,12 +7271,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9461,12 +9461,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9727,12 +9727,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9917,12 +9917,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10525,12 +10525,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10981,12 +10981,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11019,12 +11019,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11399,12 +11399,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11475,12 +11475,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11665,12 +11665,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11931,12 +11931,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12957,12 +12957,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13869,12 +13869,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13945,12 +13945,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14363,12 +14363,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14629,12 +14629,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14705,12 +14705,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15427,12 +15427,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15541,12 +15541,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16039,12 +16039,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16115,12 +16115,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16461,12 +16461,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16735,12 +16735,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16811,12 +16811,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16887,12 +16887,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17875,12 +17875,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18293,12 +18293,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18829,12 +18829,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19479,12 +19479,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20095,12 +20095,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20133,12 +20133,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22049,12 +22049,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22315,12 +22315,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23041,12 +23041,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23117,12 +23117,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23767,12 +23767,12 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23995,12 +23995,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24497,12 +24497,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25455,12 +25455,12 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25569,12 +25569,12 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25835,12 +25835,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
